--- a/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table19.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7CDD3B-D82B-7448-ACF5-C02765241116}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB4DBF0-FB67-7942-8E51-39546608BF69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22420" yWindow="1100" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="53">
   <si>
     <t>Value</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t xml:space="preserve">All other   </t>
-  </si>
-  <si>
-    <t>TotaLs</t>
   </si>
   <si>
     <t xml:space="preserve">Crab </t>
@@ -547,16 +544,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -575,8 +572,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3">
         <v>4203464</v>
@@ -674,7 +674,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3">
         <v>39865</v>
@@ -744,7 +744,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="3">
         <v>10314</v>
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="3">
         <v>7326</v>
@@ -842,7 +842,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3">
         <v>3222044</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="4">
         <f>SUM(C4:C21)-C22</f>
@@ -869,7 +869,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3">
         <v>154032</v>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="3">
         <v>94339</v>
@@ -897,7 +897,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="3">
         <v>34768</v>
@@ -911,7 +911,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="3">
         <v>32688</v>
@@ -925,7 +925,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="3">
         <v>8634</v>
@@ -939,7 +939,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="3">
         <v>8599</v>
@@ -953,7 +953,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="3">
         <v>6571</v>
@@ -967,7 +967,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="3">
         <v>25417</v>
@@ -981,7 +981,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="3">
         <v>365048</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="4">
         <f>SUM(C24:C31)-C32</f>
@@ -1022,7 +1022,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" s="3">
         <v>62905</v>
@@ -1036,7 +1036,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="3">
         <v>24799</v>
@@ -1050,7 +1050,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="3">
         <v>21989</v>
@@ -1064,7 +1064,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="3">
         <v>17226</v>
@@ -1078,7 +1078,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="3">
         <v>13800</v>
@@ -1092,7 +1092,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="3">
         <v>5586</v>
@@ -1106,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="3">
         <v>16705</v>
@@ -1120,7 +1120,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" s="3">
         <v>326099</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" s="4">
         <f>SUM(C34:C41)-C42</f>
@@ -1147,7 +1147,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44" s="3">
         <v>45650</v>
@@ -1161,7 +1161,7 @@
         <v>5</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="3">
         <v>29834</v>
@@ -1175,7 +1175,7 @@
         <v>5</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46" s="3">
         <v>24266</v>
@@ -1189,7 +1189,7 @@
         <v>5</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C47" s="3">
         <v>62</v>
@@ -1203,7 +1203,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C48" s="3">
         <v>99812</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="4">
         <f>SUM(C44:C47)-C48</f>
@@ -1244,7 +1244,7 @@
         <v>6</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" s="3">
         <v>21371</v>
@@ -1258,7 +1258,7 @@
         <v>6</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C52" s="3">
         <v>17095</v>
@@ -1272,7 +1272,7 @@
         <v>6</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C53" s="3">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>6</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C54" s="3">
         <v>72588</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C55" s="4">
         <f>SUM(C50:C53)-C54</f>
@@ -1313,7 +1313,7 @@
         <v>7</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" s="3">
         <v>32067</v>
@@ -1327,7 +1327,7 @@
         <v>7</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C57" s="3">
         <v>12590</v>
@@ -1341,7 +1341,7 @@
         <v>7</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C58" s="3">
         <v>12555</v>
@@ -1355,7 +1355,7 @@
         <v>7</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C59" s="3">
         <v>57212</v>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C60" s="4">
         <f>SUM(C56:C58)-C59</f>
@@ -1396,7 +1396,7 @@
         <v>8</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C62" s="3">
         <v>9913</v>
@@ -1410,7 +1410,7 @@
         <v>8</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C63" s="3">
         <v>47435</v>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C64" s="4">
         <f>SUM(C61:C62)-C63</f>
@@ -1437,7 +1437,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C65" s="3">
         <v>11801</v>
@@ -1451,7 +1451,7 @@
         <v>9</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C66" s="3">
         <v>979</v>
@@ -1465,7 +1465,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C67" s="3">
         <v>12780</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C68" s="4">
         <f>SUM(C65:C66)-C67</f>
@@ -1492,7 +1492,7 @@
         <v>10</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C69" s="3">
         <v>446</v>
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C70" s="3">
         <v>446</v>
